--- a/cong.xlsx
+++ b/cong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A531FFA-F7E4-42FA-992A-BFD87849A7F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762BBF3-C821-4C71-849C-053EC42A69FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,12 +41,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,7 +69,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -348,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
